--- a/data/df_param.xlsx
+++ b/data/df_param.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U17"/>
+  <dimension ref="A1:U22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -610,938 +610,1273 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>All</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21</v>
+        <v>-620</v>
       </c>
       <c r="C4" t="n">
         <v>1210</v>
       </c>
       <c r="D4" t="n">
-        <v>739.16</v>
+        <v>382.52</v>
       </c>
       <c r="E4" t="n">
-        <v>238.08</v>
+        <v>428.31</v>
       </c>
       <c r="F4" t="n">
-        <v>-129</v>
+        <v>-620</v>
       </c>
       <c r="G4" t="n">
-        <v>1182</v>
+        <v>1212</v>
       </c>
       <c r="H4" t="n">
-        <v>572.3099999999999</v>
+        <v>312.15</v>
       </c>
       <c r="I4" t="n">
-        <v>271.75</v>
+        <v>389.55</v>
       </c>
       <c r="J4" t="n">
-        <v>-94</v>
+        <v>-620</v>
       </c>
       <c r="K4" t="n">
         <v>985</v>
       </c>
       <c r="L4" t="n">
-        <v>625.95</v>
+        <v>278.8</v>
       </c>
       <c r="M4" t="n">
-        <v>211.91</v>
+        <v>317.88</v>
       </c>
       <c r="N4" t="n">
-        <v>219</v>
+        <v>-283</v>
       </c>
       <c r="O4" t="n">
-        <v>1071</v>
+        <v>1140</v>
       </c>
       <c r="P4" t="n">
-        <v>736.66</v>
+        <v>498.63</v>
       </c>
       <c r="Q4" t="n">
-        <v>168.66</v>
+        <v>257.78</v>
       </c>
       <c r="R4" t="n">
-        <v>-31</v>
+        <v>-333</v>
       </c>
       <c r="S4" t="n">
-        <v>740</v>
+        <v>816</v>
       </c>
       <c r="T4" t="n">
-        <v>440.85</v>
+        <v>185.43</v>
       </c>
       <c r="U4" t="n">
-        <v>139.28</v>
+        <v>221.14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>LAT</t>
+          <t>Cortical</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-235</v>
+        <v>-95</v>
       </c>
       <c r="C5" t="n">
-        <v>1106</v>
+        <v>1210</v>
       </c>
       <c r="D5" t="n">
-        <v>406.19</v>
+        <v>734.34</v>
       </c>
       <c r="E5" t="n">
-        <v>282.86</v>
+        <v>261.03</v>
       </c>
       <c r="F5" t="n">
-        <v>-197</v>
+        <v>-156</v>
       </c>
       <c r="G5" t="n">
-        <v>976</v>
+        <v>1212</v>
       </c>
       <c r="H5" t="n">
-        <v>298.57</v>
+        <v>614.16</v>
       </c>
       <c r="I5" t="n">
-        <v>253.15</v>
+        <v>269.57</v>
       </c>
       <c r="J5" t="n">
-        <v>-51</v>
+        <v>-169</v>
       </c>
       <c r="K5" t="n">
-        <v>939</v>
+        <v>985</v>
       </c>
       <c r="L5" t="n">
-        <v>372.45</v>
+        <v>547.83</v>
       </c>
       <c r="M5" t="n">
-        <v>188.87</v>
+        <v>205.17</v>
       </c>
       <c r="N5" t="n">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="O5" t="n">
-        <v>1029</v>
+        <v>1140</v>
       </c>
       <c r="P5" t="n">
-        <v>523.29</v>
+        <v>702.52</v>
       </c>
       <c r="Q5" t="n">
-        <v>191.83</v>
+        <v>160.79</v>
       </c>
       <c r="R5" t="n">
-        <v>57</v>
+        <v>-87</v>
       </c>
       <c r="S5" t="n">
-        <v>816</v>
+        <v>740</v>
       </c>
       <c r="T5" t="n">
-        <v>284.75</v>
+        <v>358.29</v>
       </c>
       <c r="U5" t="n">
-        <v>131.41</v>
+        <v>143.9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>LPC</t>
+          <t>Trabecular</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3</v>
+        <v>-620</v>
       </c>
       <c r="C6" t="n">
-        <v>1208</v>
+        <v>1106</v>
       </c>
       <c r="D6" t="n">
-        <v>804.21</v>
+        <v>223.19</v>
       </c>
       <c r="E6" t="n">
-        <v>240.15</v>
+        <v>255.2</v>
       </c>
       <c r="F6" t="n">
-        <v>-156</v>
+        <v>-468</v>
       </c>
       <c r="G6" t="n">
-        <v>1151</v>
+        <v>976</v>
       </c>
       <c r="H6" t="n">
-        <v>658.09</v>
+        <v>190.06</v>
       </c>
       <c r="I6" t="n">
-        <v>274.41</v>
+        <v>215.52</v>
       </c>
       <c r="J6" t="n">
-        <v>-17</v>
+        <v>-620</v>
       </c>
       <c r="K6" t="n">
-        <v>892</v>
+        <v>939</v>
       </c>
       <c r="L6" t="n">
-        <v>571.39</v>
+        <v>144.54</v>
       </c>
       <c r="M6" t="n">
-        <v>190.45</v>
+        <v>208.03</v>
       </c>
       <c r="N6" t="n">
-        <v>222</v>
+        <v>-23</v>
       </c>
       <c r="O6" t="n">
-        <v>1140</v>
+        <v>1029</v>
       </c>
       <c r="P6" t="n">
-        <v>741.22</v>
+        <v>397.26</v>
       </c>
       <c r="Q6" t="n">
-        <v>163.17</v>
+        <v>183.2</v>
       </c>
       <c r="R6" t="n">
-        <v>21</v>
+        <v>-333</v>
       </c>
       <c r="S6" t="n">
-        <v>723</v>
+        <v>816</v>
       </c>
       <c r="T6" t="n">
-        <v>395.12</v>
+        <v>116.11</v>
       </c>
       <c r="U6" t="n">
-        <v>147.12</v>
+        <v>135.45</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>LPT</t>
+          <t>Maxillary</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-112</v>
+        <v>-620</v>
       </c>
       <c r="C7" t="n">
-        <v>791</v>
+        <v>1164</v>
       </c>
       <c r="D7" t="n">
-        <v>212.64</v>
+        <v>297.05</v>
       </c>
       <c r="E7" t="n">
-        <v>199.88</v>
+        <v>454.13</v>
       </c>
       <c r="F7" t="n">
-        <v>-226</v>
+        <v>-620</v>
       </c>
       <c r="G7" t="n">
-        <v>615</v>
+        <v>1212</v>
       </c>
       <c r="H7" t="n">
-        <v>138.6</v>
+        <v>255.15</v>
       </c>
       <c r="I7" t="n">
-        <v>138.5</v>
+        <v>425.23</v>
       </c>
       <c r="J7" t="n">
-        <v>-389</v>
+        <v>-620</v>
       </c>
       <c r="K7" t="n">
-        <v>625</v>
+        <v>853</v>
       </c>
       <c r="L7" t="n">
-        <v>91.73999999999999</v>
+        <v>229.14</v>
       </c>
       <c r="M7" t="n">
-        <v>163.67</v>
+        <v>322.88</v>
       </c>
       <c r="N7" t="n">
-        <v>-2</v>
+        <v>-283</v>
       </c>
       <c r="O7" t="n">
-        <v>760</v>
+        <v>984</v>
       </c>
       <c r="P7" t="n">
-        <v>367</v>
+        <v>455.29</v>
       </c>
       <c r="Q7" t="n">
-        <v>176.16</v>
+        <v>264.98</v>
       </c>
       <c r="R7" t="n">
-        <v>-223</v>
+        <v>-333</v>
       </c>
       <c r="S7" t="n">
-        <v>385</v>
+        <v>607</v>
       </c>
       <c r="T7" t="n">
-        <v>99.3</v>
+        <v>127.73</v>
       </c>
       <c r="U7" t="n">
-        <v>96.41</v>
+        <v>227.25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>LMC</t>
+          <t>Mandibular</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-93</v>
+        <v>-235</v>
       </c>
       <c r="C8" t="n">
-        <v>1148</v>
+        <v>1210</v>
       </c>
       <c r="D8" t="n">
-        <v>864.36</v>
+        <v>467.99</v>
       </c>
       <c r="E8" t="n">
-        <v>257.18</v>
+        <v>382.21</v>
       </c>
       <c r="F8" t="n">
-        <v>-103</v>
+        <v>-277</v>
       </c>
       <c r="G8" t="n">
-        <v>1038</v>
+        <v>1182</v>
       </c>
       <c r="H8" t="n">
-        <v>708.14</v>
+        <v>369.15</v>
       </c>
       <c r="I8" t="n">
-        <v>256.59</v>
+        <v>340.88</v>
       </c>
       <c r="J8" t="n">
-        <v>-69</v>
+        <v>-389</v>
       </c>
       <c r="K8" t="n">
-        <v>875</v>
+        <v>985</v>
       </c>
       <c r="L8" t="n">
-        <v>564.05</v>
+        <v>328.46</v>
       </c>
       <c r="M8" t="n">
-        <v>192.86</v>
+        <v>304.82</v>
       </c>
       <c r="N8" t="n">
-        <v>134</v>
+        <v>-2</v>
       </c>
       <c r="O8" t="n">
-        <v>1011</v>
+        <v>1140</v>
       </c>
       <c r="P8" t="n">
-        <v>731.62</v>
+        <v>541.97</v>
       </c>
       <c r="Q8" t="n">
-        <v>173.64</v>
+        <v>242.76</v>
       </c>
       <c r="R8" t="n">
-        <v>-7</v>
+        <v>-223</v>
       </c>
       <c r="S8" t="n">
-        <v>646</v>
+        <v>816</v>
       </c>
       <c r="T8" t="n">
-        <v>378.25</v>
+        <v>243.13</v>
       </c>
       <c r="U8" t="n">
-        <v>133.36</v>
+        <v>198.76</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>LMT</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-217</v>
+        <v>21</v>
       </c>
       <c r="C9" t="n">
-        <v>716</v>
+        <v>1210</v>
       </c>
       <c r="D9" t="n">
-        <v>215.56</v>
+        <v>739.16</v>
       </c>
       <c r="E9" t="n">
-        <v>205.65</v>
+        <v>238.08</v>
       </c>
       <c r="F9" t="n">
-        <v>-212</v>
+        <v>-129</v>
       </c>
       <c r="G9" t="n">
-        <v>796</v>
+        <v>1182</v>
       </c>
       <c r="H9" t="n">
-        <v>218.95</v>
+        <v>572.3099999999999</v>
       </c>
       <c r="I9" t="n">
-        <v>188.03</v>
+        <v>271.75</v>
       </c>
       <c r="J9" t="n">
-        <v>-172</v>
+        <v>-94</v>
       </c>
       <c r="K9" t="n">
-        <v>545</v>
+        <v>985</v>
       </c>
       <c r="L9" t="n">
-        <v>120.08</v>
+        <v>625.95</v>
       </c>
       <c r="M9" t="n">
-        <v>150.18</v>
+        <v>211.91</v>
       </c>
       <c r="N9" t="n">
-        <v>153</v>
+        <v>219</v>
       </c>
       <c r="O9" t="n">
-        <v>738</v>
+        <v>1071</v>
       </c>
       <c r="P9" t="n">
-        <v>417.59</v>
+        <v>736.66</v>
       </c>
       <c r="Q9" t="n">
-        <v>118.13</v>
+        <v>168.66</v>
       </c>
       <c r="R9" t="n">
-        <v>-171</v>
+        <v>-31</v>
       </c>
       <c r="S9" t="n">
-        <v>352</v>
+        <v>740</v>
       </c>
       <c r="T9" t="n">
-        <v>104.74</v>
+        <v>440.85</v>
       </c>
       <c r="U9" t="n">
-        <v>82.19</v>
+        <v>139.28</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>LI</t>
+          <t>LAT</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-156</v>
+        <v>-235</v>
       </c>
       <c r="C10" t="n">
-        <v>795</v>
+        <v>1106</v>
       </c>
       <c r="D10" t="n">
-        <v>33.8</v>
+        <v>406.19</v>
       </c>
       <c r="E10" t="n">
-        <v>122.51</v>
+        <v>282.86</v>
       </c>
       <c r="F10" t="n">
-        <v>-277</v>
+        <v>-197</v>
       </c>
       <c r="G10" t="n">
-        <v>557</v>
+        <v>976</v>
       </c>
       <c r="H10" t="n">
-        <v>-10.63</v>
+        <v>298.57</v>
       </c>
       <c r="I10" t="n">
-        <v>123.85</v>
+        <v>253.15</v>
       </c>
       <c r="J10" t="n">
-        <v>-138</v>
+        <v>-51</v>
       </c>
       <c r="K10" t="n">
-        <v>230</v>
+        <v>939</v>
       </c>
       <c r="L10" t="n">
-        <v>-46.43</v>
+        <v>372.45</v>
       </c>
       <c r="M10" t="n">
-        <v>46.54</v>
+        <v>188.87</v>
       </c>
       <c r="N10" t="n">
-        <v>7</v>
+        <v>153</v>
       </c>
       <c r="O10" t="n">
-        <v>545</v>
+        <v>1029</v>
       </c>
       <c r="P10" t="n">
-        <v>276.41</v>
+        <v>523.29</v>
       </c>
       <c r="Q10" t="n">
-        <v>122.78</v>
+        <v>191.83</v>
       </c>
       <c r="R10" t="n">
-        <v>-133</v>
+        <v>57</v>
       </c>
       <c r="S10" t="n">
-        <v>160</v>
+        <v>816</v>
       </c>
       <c r="T10" t="n">
-        <v>-1.12</v>
+        <v>284.75</v>
       </c>
       <c r="U10" t="n">
-        <v>52.33</v>
+        <v>131.41</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>UAC</t>
+          <t>LPC</t>
         </is>
       </c>
       <c r="B11" t="n">
+        <v>-3</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1208</v>
+      </c>
+      <c r="D11" t="n">
+        <v>804.21</v>
+      </c>
+      <c r="E11" t="n">
+        <v>240.15</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-156</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1151</v>
+      </c>
+      <c r="H11" t="n">
+        <v>658.09</v>
+      </c>
+      <c r="I11" t="n">
+        <v>274.41</v>
+      </c>
+      <c r="J11" t="n">
         <v>-17</v>
       </c>
-      <c r="C11" t="n">
-        <v>1159</v>
-      </c>
-      <c r="D11" t="n">
-        <v>718.08</v>
-      </c>
-      <c r="E11" t="n">
-        <v>214.16</v>
-      </c>
-      <c r="F11" t="n">
-        <v>-122</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1164</v>
-      </c>
-      <c r="H11" t="n">
-        <v>633.83</v>
-      </c>
-      <c r="I11" t="n">
-        <v>214.55</v>
-      </c>
-      <c r="J11" t="n">
-        <v>26</v>
-      </c>
       <c r="K11" t="n">
-        <v>827</v>
+        <v>892</v>
       </c>
       <c r="L11" t="n">
-        <v>569.39</v>
+        <v>571.39</v>
       </c>
       <c r="M11" t="n">
-        <v>151.67</v>
+        <v>190.45</v>
       </c>
       <c r="N11" t="n">
-        <v>104</v>
+        <v>222</v>
       </c>
       <c r="O11" t="n">
-        <v>984</v>
+        <v>1140</v>
       </c>
       <c r="P11" t="n">
-        <v>691.8</v>
+        <v>741.22</v>
       </c>
       <c r="Q11" t="n">
-        <v>131.43</v>
+        <v>163.17</v>
       </c>
       <c r="R11" t="n">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="S11" t="n">
-        <v>607</v>
+        <v>723</v>
       </c>
       <c r="T11" t="n">
-        <v>367.2</v>
+        <v>395.12</v>
       </c>
       <c r="U11" t="n">
-        <v>95.64</v>
+        <v>147.12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>UAT</t>
+          <t>LPT</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-153</v>
+        <v>-112</v>
       </c>
       <c r="C12" t="n">
-        <v>762</v>
+        <v>791</v>
       </c>
       <c r="D12" t="n">
-        <v>143.33</v>
+        <v>212.64</v>
       </c>
       <c r="E12" t="n">
-        <v>173.17</v>
+        <v>199.88</v>
       </c>
       <c r="F12" t="n">
-        <v>-220</v>
+        <v>-226</v>
       </c>
       <c r="G12" t="n">
-        <v>839</v>
+        <v>615</v>
       </c>
       <c r="H12" t="n">
-        <v>118.24</v>
+        <v>138.6</v>
       </c>
       <c r="I12" t="n">
-        <v>163.42</v>
+        <v>138.5</v>
       </c>
       <c r="J12" t="n">
-        <v>-121</v>
+        <v>-389</v>
       </c>
       <c r="K12" t="n">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="L12" t="n">
-        <v>54.88</v>
+        <v>91.73999999999999</v>
       </c>
       <c r="M12" t="n">
-        <v>159.17</v>
+        <v>163.67</v>
       </c>
       <c r="N12" t="n">
-        <v>39</v>
+        <v>-2</v>
       </c>
       <c r="O12" t="n">
-        <v>834</v>
+        <v>760</v>
       </c>
       <c r="P12" t="n">
-        <v>318.16</v>
+        <v>367</v>
       </c>
       <c r="Q12" t="n">
-        <v>162.6</v>
+        <v>176.16</v>
       </c>
       <c r="R12" t="n">
-        <v>-92</v>
+        <v>-223</v>
       </c>
       <c r="S12" t="n">
-        <v>402</v>
+        <v>385</v>
       </c>
       <c r="T12" t="n">
-        <v>66.47</v>
+        <v>99.3</v>
       </c>
       <c r="U12" t="n">
-        <v>103.27</v>
+        <v>96.41</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>UPC</t>
+          <t>LMC</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-95</v>
+        <v>-93</v>
       </c>
       <c r="C13" t="n">
-        <v>1130</v>
+        <v>1148</v>
       </c>
       <c r="D13" t="n">
-        <v>716.27</v>
+        <v>864.36</v>
       </c>
       <c r="E13" t="n">
-        <v>256.15</v>
+        <v>257.18</v>
       </c>
       <c r="F13" t="n">
-        <v>-156</v>
+        <v>-103</v>
       </c>
       <c r="G13" t="n">
-        <v>1212</v>
+        <v>1038</v>
       </c>
       <c r="H13" t="n">
-        <v>611.45</v>
+        <v>708.14</v>
       </c>
       <c r="I13" t="n">
-        <v>256.96</v>
+        <v>256.59</v>
       </c>
       <c r="J13" t="n">
-        <v>-134</v>
+        <v>-69</v>
       </c>
       <c r="K13" t="n">
-        <v>853</v>
+        <v>875</v>
       </c>
       <c r="L13" t="n">
-        <v>560.6799999999999</v>
+        <v>564.05</v>
       </c>
       <c r="M13" t="n">
-        <v>199.49</v>
+        <v>192.86</v>
       </c>
       <c r="N13" t="n">
-        <v>189</v>
+        <v>134</v>
       </c>
       <c r="O13" t="n">
-        <v>949</v>
+        <v>1011</v>
       </c>
       <c r="P13" t="n">
-        <v>697.2</v>
+        <v>731.62</v>
       </c>
       <c r="Q13" t="n">
-        <v>143.71</v>
+        <v>173.64</v>
       </c>
       <c r="R13" t="n">
-        <v>-87</v>
+        <v>-7</v>
       </c>
       <c r="S13" t="n">
-        <v>599</v>
+        <v>646</v>
       </c>
       <c r="T13" t="n">
-        <v>336.12</v>
+        <v>378.25</v>
       </c>
       <c r="U13" t="n">
-        <v>127.51</v>
+        <v>133.36</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>UPT</t>
+          <t>LMT</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-620</v>
+        <v>-217</v>
       </c>
       <c r="C14" t="n">
-        <v>674</v>
+        <v>716</v>
       </c>
       <c r="D14" t="n">
-        <v>32.08</v>
+        <v>215.56</v>
       </c>
       <c r="E14" t="n">
-        <v>237.65</v>
+        <v>205.65</v>
       </c>
       <c r="F14" t="n">
-        <v>-468</v>
+        <v>-212</v>
       </c>
       <c r="G14" t="n">
         <v>796</v>
       </c>
       <c r="H14" t="n">
-        <v>77.43000000000001</v>
+        <v>218.95</v>
       </c>
       <c r="I14" t="n">
-        <v>210.15</v>
+        <v>188.03</v>
       </c>
       <c r="J14" t="n">
-        <v>-620</v>
+        <v>-172</v>
       </c>
       <c r="K14" t="n">
-        <v>604</v>
+        <v>545</v>
       </c>
       <c r="L14" t="n">
-        <v>35.82</v>
+        <v>120.08</v>
       </c>
       <c r="M14" t="n">
-        <v>208.32</v>
+        <v>150.18</v>
       </c>
       <c r="N14" t="n">
-        <v>-23</v>
+        <v>153</v>
       </c>
       <c r="O14" t="n">
-        <v>707</v>
+        <v>738</v>
       </c>
       <c r="P14" t="n">
-        <v>309.32</v>
+        <v>417.59</v>
       </c>
       <c r="Q14" t="n">
-        <v>164.09</v>
+        <v>118.13</v>
       </c>
       <c r="R14" t="n">
-        <v>-333</v>
+        <v>-171</v>
       </c>
       <c r="S14" t="n">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="T14" t="n">
-        <v>23.45</v>
+        <v>104.74</v>
       </c>
       <c r="U14" t="n">
-        <v>127.89</v>
+        <v>82.19</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>UMC</t>
+          <t>LI</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-75</v>
+        <v>-156</v>
       </c>
       <c r="C15" t="n">
-        <v>1164</v>
+        <v>795</v>
       </c>
       <c r="D15" t="n">
-        <v>563.98</v>
+        <v>33.8</v>
       </c>
       <c r="E15" t="n">
-        <v>256.17</v>
+        <v>122.51</v>
       </c>
       <c r="F15" t="n">
-        <v>-55</v>
+        <v>-277</v>
       </c>
       <c r="G15" t="n">
-        <v>1119</v>
+        <v>557</v>
       </c>
       <c r="H15" t="n">
-        <v>501.16</v>
+        <v>-10.63</v>
       </c>
       <c r="I15" t="n">
-        <v>288.98</v>
+        <v>123.85</v>
       </c>
       <c r="J15" t="n">
-        <v>-169</v>
+        <v>-138</v>
       </c>
       <c r="K15" t="n">
-        <v>810</v>
+        <v>230</v>
       </c>
       <c r="L15" t="n">
-        <v>395.52</v>
+        <v>-46.43</v>
       </c>
       <c r="M15" t="n">
-        <v>201.91</v>
+        <v>46.54</v>
       </c>
       <c r="N15" t="n">
-        <v>258</v>
+        <v>7</v>
       </c>
       <c r="O15" t="n">
-        <v>980</v>
+        <v>545</v>
       </c>
       <c r="P15" t="n">
-        <v>616.65</v>
+        <v>276.41</v>
       </c>
       <c r="Q15" t="n">
-        <v>145</v>
+        <v>122.78</v>
       </c>
       <c r="R15" t="n">
-        <v>-54</v>
+        <v>-133</v>
       </c>
       <c r="S15" t="n">
-        <v>534</v>
+        <v>160</v>
       </c>
       <c r="T15" t="n">
-        <v>232.18</v>
+        <v>-1.12</v>
       </c>
       <c r="U15" t="n">
-        <v>122.54</v>
+        <v>52.33</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>UMT</t>
+          <t>UAC</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-170</v>
+        <v>-17</v>
       </c>
       <c r="C16" t="n">
-        <v>917</v>
+        <v>1159</v>
       </c>
       <c r="D16" t="n">
-        <v>329.31</v>
+        <v>718.08</v>
       </c>
       <c r="E16" t="n">
-        <v>233.21</v>
+        <v>214.16</v>
       </c>
       <c r="F16" t="n">
-        <v>-170</v>
+        <v>-122</v>
       </c>
       <c r="G16" t="n">
-        <v>779</v>
+        <v>1164</v>
       </c>
       <c r="H16" t="n">
-        <v>288.6</v>
+        <v>633.83</v>
       </c>
       <c r="I16" t="n">
-        <v>215.71</v>
+        <v>214.55</v>
       </c>
       <c r="J16" t="n">
-        <v>-101</v>
+        <v>26</v>
       </c>
       <c r="K16" t="n">
-        <v>551</v>
+        <v>827</v>
       </c>
       <c r="L16" t="n">
-        <v>192.24</v>
+        <v>569.39</v>
       </c>
       <c r="M16" t="n">
-        <v>168.96</v>
+        <v>151.67</v>
       </c>
       <c r="N16" t="n">
-        <v>-16</v>
+        <v>104</v>
       </c>
       <c r="O16" t="n">
-        <v>819</v>
+        <v>984</v>
       </c>
       <c r="P16" t="n">
-        <v>448.19</v>
+        <v>691.8</v>
       </c>
       <c r="Q16" t="n">
-        <v>180.29</v>
+        <v>131.43</v>
       </c>
       <c r="R16" t="n">
-        <v>-60</v>
+        <v>53</v>
       </c>
       <c r="S16" t="n">
-        <v>336</v>
+        <v>607</v>
       </c>
       <c r="T16" t="n">
-        <v>117.91</v>
+        <v>367.2</v>
       </c>
       <c r="U16" t="n">
-        <v>99.38</v>
+        <v>95.64</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
+          <t>UAT</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-153</v>
+      </c>
+      <c r="C17" t="n">
+        <v>762</v>
+      </c>
+      <c r="D17" t="n">
+        <v>143.33</v>
+      </c>
+      <c r="E17" t="n">
+        <v>173.17</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-220</v>
+      </c>
+      <c r="G17" t="n">
+        <v>839</v>
+      </c>
+      <c r="H17" t="n">
+        <v>118.24</v>
+      </c>
+      <c r="I17" t="n">
+        <v>163.42</v>
+      </c>
+      <c r="J17" t="n">
+        <v>-121</v>
+      </c>
+      <c r="K17" t="n">
+        <v>634</v>
+      </c>
+      <c r="L17" t="n">
+        <v>54.88</v>
+      </c>
+      <c r="M17" t="n">
+        <v>159.17</v>
+      </c>
+      <c r="N17" t="n">
+        <v>39</v>
+      </c>
+      <c r="O17" t="n">
+        <v>834</v>
+      </c>
+      <c r="P17" t="n">
+        <v>318.16</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>162.6</v>
+      </c>
+      <c r="R17" t="n">
+        <v>-92</v>
+      </c>
+      <c r="S17" t="n">
+        <v>402</v>
+      </c>
+      <c r="T17" t="n">
+        <v>66.47</v>
+      </c>
+      <c r="U17" t="n">
+        <v>103.27</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>UPC</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-95</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1130</v>
+      </c>
+      <c r="D18" t="n">
+        <v>716.27</v>
+      </c>
+      <c r="E18" t="n">
+        <v>256.15</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-156</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1212</v>
+      </c>
+      <c r="H18" t="n">
+        <v>611.45</v>
+      </c>
+      <c r="I18" t="n">
+        <v>256.96</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-134</v>
+      </c>
+      <c r="K18" t="n">
+        <v>853</v>
+      </c>
+      <c r="L18" t="n">
+        <v>560.6799999999999</v>
+      </c>
+      <c r="M18" t="n">
+        <v>199.49</v>
+      </c>
+      <c r="N18" t="n">
+        <v>189</v>
+      </c>
+      <c r="O18" t="n">
+        <v>949</v>
+      </c>
+      <c r="P18" t="n">
+        <v>697.2</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>143.71</v>
+      </c>
+      <c r="R18" t="n">
+        <v>-87</v>
+      </c>
+      <c r="S18" t="n">
+        <v>599</v>
+      </c>
+      <c r="T18" t="n">
+        <v>336.12</v>
+      </c>
+      <c r="U18" t="n">
+        <v>127.51</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>UPT</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-620</v>
+      </c>
+      <c r="C19" t="n">
+        <v>674</v>
+      </c>
+      <c r="D19" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="E19" t="n">
+        <v>237.65</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-468</v>
+      </c>
+      <c r="G19" t="n">
+        <v>796</v>
+      </c>
+      <c r="H19" t="n">
+        <v>77.43000000000001</v>
+      </c>
+      <c r="I19" t="n">
+        <v>210.15</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-620</v>
+      </c>
+      <c r="K19" t="n">
+        <v>604</v>
+      </c>
+      <c r="L19" t="n">
+        <v>35.82</v>
+      </c>
+      <c r="M19" t="n">
+        <v>208.32</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-23</v>
+      </c>
+      <c r="O19" t="n">
+        <v>707</v>
+      </c>
+      <c r="P19" t="n">
+        <v>309.32</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>164.09</v>
+      </c>
+      <c r="R19" t="n">
+        <v>-333</v>
+      </c>
+      <c r="S19" t="n">
+        <v>356</v>
+      </c>
+      <c r="T19" t="n">
+        <v>23.45</v>
+      </c>
+      <c r="U19" t="n">
+        <v>127.89</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>UMC</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>-75</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1164</v>
+      </c>
+      <c r="D20" t="n">
+        <v>563.98</v>
+      </c>
+      <c r="E20" t="n">
+        <v>256.17</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-55</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1119</v>
+      </c>
+      <c r="H20" t="n">
+        <v>501.16</v>
+      </c>
+      <c r="I20" t="n">
+        <v>288.98</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-169</v>
+      </c>
+      <c r="K20" t="n">
+        <v>810</v>
+      </c>
+      <c r="L20" t="n">
+        <v>395.52</v>
+      </c>
+      <c r="M20" t="n">
+        <v>201.91</v>
+      </c>
+      <c r="N20" t="n">
+        <v>258</v>
+      </c>
+      <c r="O20" t="n">
+        <v>980</v>
+      </c>
+      <c r="P20" t="n">
+        <v>616.65</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>145</v>
+      </c>
+      <c r="R20" t="n">
+        <v>-54</v>
+      </c>
+      <c r="S20" t="n">
+        <v>534</v>
+      </c>
+      <c r="T20" t="n">
+        <v>232.18</v>
+      </c>
+      <c r="U20" t="n">
+        <v>122.54</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>UMT</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-170</v>
+      </c>
+      <c r="C21" t="n">
+        <v>917</v>
+      </c>
+      <c r="D21" t="n">
+        <v>329.31</v>
+      </c>
+      <c r="E21" t="n">
+        <v>233.21</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-170</v>
+      </c>
+      <c r="G21" t="n">
+        <v>779</v>
+      </c>
+      <c r="H21" t="n">
+        <v>288.6</v>
+      </c>
+      <c r="I21" t="n">
+        <v>215.71</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-101</v>
+      </c>
+      <c r="K21" t="n">
+        <v>551</v>
+      </c>
+      <c r="L21" t="n">
+        <v>192.24</v>
+      </c>
+      <c r="M21" t="n">
+        <v>168.96</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-16</v>
+      </c>
+      <c r="O21" t="n">
+        <v>819</v>
+      </c>
+      <c r="P21" t="n">
+        <v>448.19</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>180.29</v>
+      </c>
+      <c r="R21" t="n">
+        <v>-60</v>
+      </c>
+      <c r="S21" t="n">
+        <v>336</v>
+      </c>
+      <c r="T21" t="n">
+        <v>117.91</v>
+      </c>
+      <c r="U21" t="n">
+        <v>99.38</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
           <t>US</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B22" t="n">
         <v>-598</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C22" t="n">
         <v>882</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D22" t="n">
         <v>-423.67</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E22" t="n">
         <v>295.32</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F22" t="n">
         <v>-620</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G22" t="n">
         <v>696</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H22" t="n">
         <v>-444.64</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I22" t="n">
         <v>284.44</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J22" t="n">
         <v>-513</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K22" t="n">
         <v>391</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L22" t="n">
         <v>-204.59</v>
       </c>
-      <c r="M17" t="n">
+      <c r="M22" t="n">
         <v>135.7</v>
       </c>
-      <c r="N17" t="n">
+      <c r="N22" t="n">
         <v>-283</v>
       </c>
-      <c r="O17" t="n">
+      <c r="O22" t="n">
         <v>784</v>
       </c>
-      <c r="P17" t="n">
+      <c r="P22" t="n">
         <v>105.68</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="Q22" t="n">
         <v>209.49</v>
       </c>
-      <c r="R17" t="n">
+      <c r="R22" t="n">
         <v>-333</v>
       </c>
-      <c r="S17" t="n">
+      <c r="S22" t="n">
         <v>266</v>
       </c>
-      <c r="T17" t="n">
+      <c r="T22" t="n">
         <v>-249.22</v>
       </c>
-      <c r="U17" t="n">
+      <c r="U22" t="n">
         <v>125.37</v>
       </c>
     </row>

--- a/data/df_param.xlsx
+++ b/data/df_param.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U22"/>
+  <dimension ref="A1:Z22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,38 +471,43 @@
       <c r="C1" s="1" t="n"/>
       <c r="D1" s="1" t="n"/>
       <c r="E1" s="1" t="n"/>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="n"/>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>QCBCT</t>
         </is>
       </c>
-      <c r="G1" s="1" t="n"/>
       <c r="H1" s="1" t="n"/>
       <c r="I1" s="1" t="n"/>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="n"/>
+      <c r="K1" s="1" t="n"/>
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>CYC_CBCT</t>
         </is>
       </c>
-      <c r="K1" s="1" t="n"/>
-      <c r="L1" s="1" t="n"/>
       <c r="M1" s="1" t="n"/>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>U_CBCT</t>
-        </is>
-      </c>
+      <c r="N1" s="1" t="n"/>
       <c r="O1" s="1" t="n"/>
       <c r="P1" s="1" t="n"/>
-      <c r="Q1" s="1" t="n"/>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>CAL_CBCT</t>
-        </is>
-      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>U_CBCT</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="n"/>
       <c r="S1" s="1" t="n"/>
       <c r="T1" s="1" t="n"/>
       <c r="U1" s="1" t="n"/>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>CAL_CBCT</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="n"/>
+      <c r="X1" s="1" t="n"/>
+      <c r="Y1" s="1" t="n"/>
+      <c r="Z1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr"/>
@@ -528,82 +533,107 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
+          <t>slope</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
           <t>min</t>
         </is>
       </c>
-      <c r="G2" s="1" t="inlineStr">
+      <c r="H2" s="1" t="inlineStr">
         <is>
           <t>Max</t>
         </is>
       </c>
-      <c r="H2" s="1" t="inlineStr">
+      <c r="I2" s="1" t="inlineStr">
         <is>
           <t>mean</t>
         </is>
       </c>
-      <c r="I2" s="1" t="inlineStr">
+      <c r="J2" s="1" t="inlineStr">
         <is>
           <t>std</t>
         </is>
       </c>
-      <c r="J2" s="1" t="inlineStr">
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>slope</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
         <is>
           <t>min</t>
         </is>
       </c>
-      <c r="K2" s="1" t="inlineStr">
+      <c r="M2" s="1" t="inlineStr">
         <is>
           <t>Max</t>
         </is>
       </c>
-      <c r="L2" s="1" t="inlineStr">
+      <c r="N2" s="1" t="inlineStr">
         <is>
           <t>mean</t>
         </is>
       </c>
-      <c r="M2" s="1" t="inlineStr">
+      <c r="O2" s="1" t="inlineStr">
         <is>
           <t>std</t>
         </is>
       </c>
-      <c r="N2" s="1" t="inlineStr">
+      <c r="P2" s="1" t="inlineStr">
+        <is>
+          <t>slope</t>
+        </is>
+      </c>
+      <c r="Q2" s="1" t="inlineStr">
         <is>
           <t>min</t>
         </is>
       </c>
-      <c r="O2" s="1" t="inlineStr">
+      <c r="R2" s="1" t="inlineStr">
         <is>
           <t>Max</t>
         </is>
       </c>
-      <c r="P2" s="1" t="inlineStr">
+      <c r="S2" s="1" t="inlineStr">
         <is>
           <t>mean</t>
         </is>
       </c>
-      <c r="Q2" s="1" t="inlineStr">
+      <c r="T2" s="1" t="inlineStr">
         <is>
           <t>std</t>
         </is>
       </c>
-      <c r="R2" s="1" t="inlineStr">
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>slope</t>
+        </is>
+      </c>
+      <c r="V2" s="1" t="inlineStr">
         <is>
           <t>min</t>
         </is>
       </c>
-      <c r="S2" s="1" t="inlineStr">
+      <c r="W2" s="1" t="inlineStr">
         <is>
           <t>Max</t>
         </is>
       </c>
-      <c r="T2" s="1" t="inlineStr">
+      <c r="X2" s="1" t="inlineStr">
         <is>
           <t>mean</t>
         </is>
       </c>
-      <c r="U2" s="1" t="inlineStr">
+      <c r="Y2" s="1" t="inlineStr">
         <is>
           <t>std</t>
+        </is>
+      </c>
+      <c r="Z2" s="1" t="inlineStr">
+        <is>
+          <t>slope</t>
         </is>
       </c>
     </row>
@@ -625,53 +655,78 @@
       <c r="E4" t="n">
         <v>428.31</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
         <v>-620</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>1212</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>312.15</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>389.55</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
         <v>-620</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>985</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>278.8</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>317.88</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
         <v>-283</v>
       </c>
-      <c r="O4" t="n">
+      <c r="R4" t="n">
         <v>1140</v>
       </c>
-      <c r="P4" t="n">
+      <c r="S4" t="n">
         <v>498.63</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="T4" t="n">
         <v>257.78</v>
       </c>
-      <c r="R4" t="n">
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="V4" t="n">
         <v>-333</v>
       </c>
-      <c r="S4" t="n">
+      <c r="W4" t="n">
         <v>816</v>
       </c>
-      <c r="T4" t="n">
+      <c r="X4" t="n">
         <v>185.43</v>
       </c>
-      <c r="U4" t="n">
+      <c r="Y4" t="n">
         <v>221.14</v>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -692,53 +747,78 @@
       <c r="E5" t="n">
         <v>261.03</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
         <v>-156</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>1212</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>614.16</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>269.57</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
         <v>-169</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>985</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>547.83</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
         <v>205.17</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
         <v>104</v>
       </c>
-      <c r="O5" t="n">
+      <c r="R5" t="n">
         <v>1140</v>
       </c>
-      <c r="P5" t="n">
+      <c r="S5" t="n">
         <v>702.52</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="T5" t="n">
         <v>160.79</v>
       </c>
-      <c r="R5" t="n">
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="V5" t="n">
         <v>-87</v>
       </c>
-      <c r="S5" t="n">
+      <c r="W5" t="n">
         <v>740</v>
       </c>
-      <c r="T5" t="n">
+      <c r="X5" t="n">
         <v>358.29</v>
       </c>
-      <c r="U5" t="n">
+      <c r="Y5" t="n">
         <v>143.9</v>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -759,53 +839,78 @@
       <c r="E6" t="n">
         <v>255.2</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
         <v>-468</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>976</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>190.06</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>215.52</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
         <v>-620</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>939</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>144.54</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6" t="n">
         <v>208.03</v>
       </c>
-      <c r="N6" t="n">
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
         <v>-23</v>
       </c>
-      <c r="O6" t="n">
+      <c r="R6" t="n">
         <v>1029</v>
       </c>
-      <c r="P6" t="n">
+      <c r="S6" t="n">
         <v>397.26</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="T6" t="n">
         <v>183.2</v>
       </c>
-      <c r="R6" t="n">
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="V6" t="n">
         <v>-333</v>
       </c>
-      <c r="S6" t="n">
+      <c r="W6" t="n">
         <v>816</v>
       </c>
-      <c r="T6" t="n">
+      <c r="X6" t="n">
         <v>116.11</v>
       </c>
-      <c r="U6" t="n">
+      <c r="Y6" t="n">
         <v>135.45</v>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -826,53 +931,78 @@
       <c r="E7" t="n">
         <v>454.13</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
         <v>-620</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>1212</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>255.15</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>425.23</v>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
         <v>-620</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>853</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>229.14</v>
       </c>
-      <c r="M7" t="n">
+      <c r="O7" t="n">
         <v>322.88</v>
       </c>
-      <c r="N7" t="n">
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
         <v>-283</v>
       </c>
-      <c r="O7" t="n">
+      <c r="R7" t="n">
         <v>984</v>
       </c>
-      <c r="P7" t="n">
+      <c r="S7" t="n">
         <v>455.29</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="T7" t="n">
         <v>264.98</v>
       </c>
-      <c r="R7" t="n">
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="V7" t="n">
         <v>-333</v>
       </c>
-      <c r="S7" t="n">
+      <c r="W7" t="n">
         <v>607</v>
       </c>
-      <c r="T7" t="n">
+      <c r="X7" t="n">
         <v>127.73</v>
       </c>
-      <c r="U7" t="n">
+      <c r="Y7" t="n">
         <v>227.25</v>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -893,53 +1023,78 @@
       <c r="E8" t="n">
         <v>382.21</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
         <v>-277</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>1182</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>369.15</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>340.88</v>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
         <v>-389</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>985</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>328.46</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8" t="n">
         <v>304.82</v>
       </c>
-      <c r="N8" t="n">
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
         <v>-2</v>
       </c>
-      <c r="O8" t="n">
+      <c r="R8" t="n">
         <v>1140</v>
       </c>
-      <c r="P8" t="n">
+      <c r="S8" t="n">
         <v>541.97</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="T8" t="n">
         <v>242.76</v>
       </c>
-      <c r="R8" t="n">
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="V8" t="n">
         <v>-223</v>
       </c>
-      <c r="S8" t="n">
+      <c r="W8" t="n">
         <v>816</v>
       </c>
-      <c r="T8" t="n">
+      <c r="X8" t="n">
         <v>243.13</v>
       </c>
-      <c r="U8" t="n">
+      <c r="Y8" t="n">
         <v>198.76</v>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -960,53 +1115,78 @@
       <c r="E9" t="n">
         <v>238.08</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
         <v>-129</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>1182</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>572.3099999999999</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>271.75</v>
       </c>
-      <c r="J9" t="n">
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
         <v>-94</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>985</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>625.95</v>
       </c>
-      <c r="M9" t="n">
+      <c r="O9" t="n">
         <v>211.91</v>
       </c>
-      <c r="N9" t="n">
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
         <v>219</v>
       </c>
-      <c r="O9" t="n">
+      <c r="R9" t="n">
         <v>1071</v>
       </c>
-      <c r="P9" t="n">
+      <c r="S9" t="n">
         <v>736.66</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="T9" t="n">
         <v>168.66</v>
       </c>
-      <c r="R9" t="n">
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="V9" t="n">
         <v>-31</v>
       </c>
-      <c r="S9" t="n">
+      <c r="W9" t="n">
         <v>740</v>
       </c>
-      <c r="T9" t="n">
+      <c r="X9" t="n">
         <v>440.85</v>
       </c>
-      <c r="U9" t="n">
+      <c r="Y9" t="n">
         <v>139.28</v>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -1027,53 +1207,78 @@
       <c r="E10" t="n">
         <v>282.86</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
         <v>-197</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>976</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>298.57</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>253.15</v>
       </c>
-      <c r="J10" t="n">
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
         <v>-51</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>939</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>372.45</v>
       </c>
-      <c r="M10" t="n">
+      <c r="O10" t="n">
         <v>188.87</v>
       </c>
-      <c r="N10" t="n">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
         <v>153</v>
       </c>
-      <c r="O10" t="n">
+      <c r="R10" t="n">
         <v>1029</v>
       </c>
-      <c r="P10" t="n">
+      <c r="S10" t="n">
         <v>523.29</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="T10" t="n">
         <v>191.83</v>
       </c>
-      <c r="R10" t="n">
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="V10" t="n">
         <v>57</v>
       </c>
-      <c r="S10" t="n">
+      <c r="W10" t="n">
         <v>816</v>
       </c>
-      <c r="T10" t="n">
+      <c r="X10" t="n">
         <v>284.75</v>
       </c>
-      <c r="U10" t="n">
+      <c r="Y10" t="n">
         <v>131.41</v>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -1094,53 +1299,78 @@
       <c r="E11" t="n">
         <v>240.15</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
         <v>-156</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>1151</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>658.09</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>274.41</v>
       </c>
-      <c r="J11" t="n">
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
         <v>-17</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>892</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>571.39</v>
       </c>
-      <c r="M11" t="n">
+      <c r="O11" t="n">
         <v>190.45</v>
       </c>
-      <c r="N11" t="n">
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
         <v>222</v>
       </c>
-      <c r="O11" t="n">
+      <c r="R11" t="n">
         <v>1140</v>
       </c>
-      <c r="P11" t="n">
+      <c r="S11" t="n">
         <v>741.22</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="T11" t="n">
         <v>163.17</v>
       </c>
-      <c r="R11" t="n">
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="V11" t="n">
         <v>21</v>
       </c>
-      <c r="S11" t="n">
+      <c r="W11" t="n">
         <v>723</v>
       </c>
-      <c r="T11" t="n">
+      <c r="X11" t="n">
         <v>395.12</v>
       </c>
-      <c r="U11" t="n">
+      <c r="Y11" t="n">
         <v>147.12</v>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -1161,53 +1391,78 @@
       <c r="E12" t="n">
         <v>199.88</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
         <v>-226</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>615</v>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
         <v>138.6</v>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>138.5</v>
       </c>
-      <c r="J12" t="n">
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
         <v>-389</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>625</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>91.73999999999999</v>
       </c>
-      <c r="M12" t="n">
+      <c r="O12" t="n">
         <v>163.67</v>
       </c>
-      <c r="N12" t="n">
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
         <v>-2</v>
       </c>
-      <c r="O12" t="n">
+      <c r="R12" t="n">
         <v>760</v>
       </c>
-      <c r="P12" t="n">
+      <c r="S12" t="n">
         <v>367</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="T12" t="n">
         <v>176.16</v>
       </c>
-      <c r="R12" t="n">
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="V12" t="n">
         <v>-223</v>
       </c>
-      <c r="S12" t="n">
+      <c r="W12" t="n">
         <v>385</v>
       </c>
-      <c r="T12" t="n">
+      <c r="X12" t="n">
         <v>99.3</v>
       </c>
-      <c r="U12" t="n">
+      <c r="Y12" t="n">
         <v>96.41</v>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -1228,53 +1483,78 @@
       <c r="E13" t="n">
         <v>257.18</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
         <v>-103</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>1038</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>708.14</v>
       </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>256.59</v>
       </c>
-      <c r="J13" t="n">
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
         <v>-69</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>875</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>564.05</v>
       </c>
-      <c r="M13" t="n">
+      <c r="O13" t="n">
         <v>192.86</v>
       </c>
-      <c r="N13" t="n">
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
         <v>134</v>
       </c>
-      <c r="O13" t="n">
+      <c r="R13" t="n">
         <v>1011</v>
       </c>
-      <c r="P13" t="n">
+      <c r="S13" t="n">
         <v>731.62</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="T13" t="n">
         <v>173.64</v>
       </c>
-      <c r="R13" t="n">
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="V13" t="n">
         <v>-7</v>
       </c>
-      <c r="S13" t="n">
+      <c r="W13" t="n">
         <v>646</v>
       </c>
-      <c r="T13" t="n">
+      <c r="X13" t="n">
         <v>378.25</v>
       </c>
-      <c r="U13" t="n">
+      <c r="Y13" t="n">
         <v>133.36</v>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -1295,53 +1575,78 @@
       <c r="E14" t="n">
         <v>205.65</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
         <v>-212</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>796</v>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>218.95</v>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>188.03</v>
       </c>
-      <c r="J14" t="n">
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
         <v>-172</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>545</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>120.08</v>
       </c>
-      <c r="M14" t="n">
+      <c r="O14" t="n">
         <v>150.18</v>
       </c>
-      <c r="N14" t="n">
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
         <v>153</v>
       </c>
-      <c r="O14" t="n">
+      <c r="R14" t="n">
         <v>738</v>
       </c>
-      <c r="P14" t="n">
+      <c r="S14" t="n">
         <v>417.59</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="T14" t="n">
         <v>118.13</v>
       </c>
-      <c r="R14" t="n">
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="V14" t="n">
         <v>-171</v>
       </c>
-      <c r="S14" t="n">
+      <c r="W14" t="n">
         <v>352</v>
       </c>
-      <c r="T14" t="n">
+      <c r="X14" t="n">
         <v>104.74</v>
       </c>
-      <c r="U14" t="n">
+      <c r="Y14" t="n">
         <v>82.19</v>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -1362,53 +1667,78 @@
       <c r="E15" t="n">
         <v>122.51</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
         <v>-277</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>557</v>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
         <v>-10.63</v>
       </c>
-      <c r="I15" t="n">
+      <c r="J15" t="n">
         <v>123.85</v>
       </c>
-      <c r="J15" t="n">
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
         <v>-138</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>230</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>-46.43</v>
       </c>
-      <c r="M15" t="n">
+      <c r="O15" t="n">
         <v>46.54</v>
       </c>
-      <c r="N15" t="n">
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
         <v>7</v>
       </c>
-      <c r="O15" t="n">
+      <c r="R15" t="n">
         <v>545</v>
       </c>
-      <c r="P15" t="n">
+      <c r="S15" t="n">
         <v>276.41</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="T15" t="n">
         <v>122.78</v>
       </c>
-      <c r="R15" t="n">
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="V15" t="n">
         <v>-133</v>
       </c>
-      <c r="S15" t="n">
+      <c r="W15" t="n">
         <v>160</v>
       </c>
-      <c r="T15" t="n">
+      <c r="X15" t="n">
         <v>-1.12</v>
       </c>
-      <c r="U15" t="n">
+      <c r="Y15" t="n">
         <v>52.33</v>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -1429,53 +1759,78 @@
       <c r="E16" t="n">
         <v>214.16</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
         <v>-122</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>1164</v>
       </c>
-      <c r="H16" t="n">
+      <c r="I16" t="n">
         <v>633.83</v>
       </c>
-      <c r="I16" t="n">
+      <c r="J16" t="n">
         <v>214.55</v>
       </c>
-      <c r="J16" t="n">
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
         <v>26</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>827</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>569.39</v>
       </c>
-      <c r="M16" t="n">
+      <c r="O16" t="n">
         <v>151.67</v>
       </c>
-      <c r="N16" t="n">
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
         <v>104</v>
       </c>
-      <c r="O16" t="n">
+      <c r="R16" t="n">
         <v>984</v>
       </c>
-      <c r="P16" t="n">
+      <c r="S16" t="n">
         <v>691.8</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="T16" t="n">
         <v>131.43</v>
       </c>
-      <c r="R16" t="n">
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="V16" t="n">
         <v>53</v>
       </c>
-      <c r="S16" t="n">
+      <c r="W16" t="n">
         <v>607</v>
       </c>
-      <c r="T16" t="n">
+      <c r="X16" t="n">
         <v>367.2</v>
       </c>
-      <c r="U16" t="n">
+      <c r="Y16" t="n">
         <v>95.64</v>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -1496,53 +1851,78 @@
       <c r="E17" t="n">
         <v>173.17</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
         <v>-220</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>839</v>
       </c>
-      <c r="H17" t="n">
+      <c r="I17" t="n">
         <v>118.24</v>
       </c>
-      <c r="I17" t="n">
+      <c r="J17" t="n">
         <v>163.42</v>
       </c>
-      <c r="J17" t="n">
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
         <v>-121</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>634</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>54.88</v>
       </c>
-      <c r="M17" t="n">
+      <c r="O17" t="n">
         <v>159.17</v>
       </c>
-      <c r="N17" t="n">
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
         <v>39</v>
       </c>
-      <c r="O17" t="n">
+      <c r="R17" t="n">
         <v>834</v>
       </c>
-      <c r="P17" t="n">
+      <c r="S17" t="n">
         <v>318.16</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="T17" t="n">
         <v>162.6</v>
       </c>
-      <c r="R17" t="n">
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="V17" t="n">
         <v>-92</v>
       </c>
-      <c r="S17" t="n">
+      <c r="W17" t="n">
         <v>402</v>
       </c>
-      <c r="T17" t="n">
+      <c r="X17" t="n">
         <v>66.47</v>
       </c>
-      <c r="U17" t="n">
+      <c r="Y17" t="n">
         <v>103.27</v>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -1563,53 +1943,78 @@
       <c r="E18" t="n">
         <v>256.15</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
         <v>-156</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18" t="n">
         <v>1212</v>
       </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
         <v>611.45</v>
       </c>
-      <c r="I18" t="n">
+      <c r="J18" t="n">
         <v>256.96</v>
       </c>
-      <c r="J18" t="n">
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
         <v>-134</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>853</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>560.6799999999999</v>
       </c>
-      <c r="M18" t="n">
+      <c r="O18" t="n">
         <v>199.49</v>
       </c>
-      <c r="N18" t="n">
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
         <v>189</v>
       </c>
-      <c r="O18" t="n">
+      <c r="R18" t="n">
         <v>949</v>
       </c>
-      <c r="P18" t="n">
+      <c r="S18" t="n">
         <v>697.2</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="T18" t="n">
         <v>143.71</v>
       </c>
-      <c r="R18" t="n">
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="V18" t="n">
         <v>-87</v>
       </c>
-      <c r="S18" t="n">
+      <c r="W18" t="n">
         <v>599</v>
       </c>
-      <c r="T18" t="n">
+      <c r="X18" t="n">
         <v>336.12</v>
       </c>
-      <c r="U18" t="n">
+      <c r="Y18" t="n">
         <v>127.51</v>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -1630,53 +2035,78 @@
       <c r="E19" t="n">
         <v>237.65</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
         <v>-468</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19" t="n">
         <v>796</v>
       </c>
-      <c r="H19" t="n">
+      <c r="I19" t="n">
         <v>77.43000000000001</v>
       </c>
-      <c r="I19" t="n">
+      <c r="J19" t="n">
         <v>210.15</v>
       </c>
-      <c r="J19" t="n">
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
         <v>-620</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>604</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>35.82</v>
       </c>
-      <c r="M19" t="n">
+      <c r="O19" t="n">
         <v>208.32</v>
       </c>
-      <c r="N19" t="n">
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
         <v>-23</v>
       </c>
-      <c r="O19" t="n">
+      <c r="R19" t="n">
         <v>707</v>
       </c>
-      <c r="P19" t="n">
+      <c r="S19" t="n">
         <v>309.32</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="T19" t="n">
         <v>164.09</v>
       </c>
-      <c r="R19" t="n">
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="V19" t="n">
         <v>-333</v>
       </c>
-      <c r="S19" t="n">
+      <c r="W19" t="n">
         <v>356</v>
       </c>
-      <c r="T19" t="n">
+      <c r="X19" t="n">
         <v>23.45</v>
       </c>
-      <c r="U19" t="n">
+      <c r="Y19" t="n">
         <v>127.89</v>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -1697,53 +2127,78 @@
       <c r="E20" t="n">
         <v>256.17</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
         <v>-55</v>
       </c>
-      <c r="G20" t="n">
+      <c r="H20" t="n">
         <v>1119</v>
       </c>
-      <c r="H20" t="n">
+      <c r="I20" t="n">
         <v>501.16</v>
       </c>
-      <c r="I20" t="n">
+      <c r="J20" t="n">
         <v>288.98</v>
       </c>
-      <c r="J20" t="n">
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
         <v>-169</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>810</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>395.52</v>
       </c>
-      <c r="M20" t="n">
+      <c r="O20" t="n">
         <v>201.91</v>
       </c>
-      <c r="N20" t="n">
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
         <v>258</v>
       </c>
-      <c r="O20" t="n">
+      <c r="R20" t="n">
         <v>980</v>
       </c>
-      <c r="P20" t="n">
+      <c r="S20" t="n">
         <v>616.65</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="T20" t="n">
         <v>145</v>
       </c>
-      <c r="R20" t="n">
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="V20" t="n">
         <v>-54</v>
       </c>
-      <c r="S20" t="n">
+      <c r="W20" t="n">
         <v>534</v>
       </c>
-      <c r="T20" t="n">
+      <c r="X20" t="n">
         <v>232.18</v>
       </c>
-      <c r="U20" t="n">
+      <c r="Y20" t="n">
         <v>122.54</v>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -1764,53 +2219,78 @@
       <c r="E21" t="n">
         <v>233.21</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
         <v>-170</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21" t="n">
         <v>779</v>
       </c>
-      <c r="H21" t="n">
+      <c r="I21" t="n">
         <v>288.6</v>
       </c>
-      <c r="I21" t="n">
+      <c r="J21" t="n">
         <v>215.71</v>
       </c>
-      <c r="J21" t="n">
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
         <v>-101</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>551</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>192.24</v>
       </c>
-      <c r="M21" t="n">
+      <c r="O21" t="n">
         <v>168.96</v>
       </c>
-      <c r="N21" t="n">
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
         <v>-16</v>
       </c>
-      <c r="O21" t="n">
+      <c r="R21" t="n">
         <v>819</v>
       </c>
-      <c r="P21" t="n">
+      <c r="S21" t="n">
         <v>448.19</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="T21" t="n">
         <v>180.29</v>
       </c>
-      <c r="R21" t="n">
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="V21" t="n">
         <v>-60</v>
       </c>
-      <c r="S21" t="n">
+      <c r="W21" t="n">
         <v>336</v>
       </c>
-      <c r="T21" t="n">
+      <c r="X21" t="n">
         <v>117.91</v>
       </c>
-      <c r="U21" t="n">
+      <c r="Y21" t="n">
         <v>99.38</v>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -1831,62 +2311,87 @@
       <c r="E22" t="n">
         <v>295.32</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
         <v>-620</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22" t="n">
         <v>696</v>
       </c>
-      <c r="H22" t="n">
+      <c r="I22" t="n">
         <v>-444.64</v>
       </c>
-      <c r="I22" t="n">
+      <c r="J22" t="n">
         <v>284.44</v>
       </c>
-      <c r="J22" t="n">
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
         <v>-513</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>391</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>-204.59</v>
       </c>
-      <c r="M22" t="n">
+      <c r="O22" t="n">
         <v>135.7</v>
       </c>
-      <c r="N22" t="n">
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
         <v>-283</v>
       </c>
-      <c r="O22" t="n">
+      <c r="R22" t="n">
         <v>784</v>
       </c>
-      <c r="P22" t="n">
+      <c r="S22" t="n">
         <v>105.68</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="T22" t="n">
         <v>209.49</v>
       </c>
-      <c r="R22" t="n">
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="V22" t="n">
         <v>-333</v>
       </c>
-      <c r="S22" t="n">
+      <c r="W22" t="n">
         <v>266</v>
       </c>
-      <c r="T22" t="n">
+      <c r="X22" t="n">
         <v>-249.22</v>
       </c>
-      <c r="U22" t="n">
+      <c r="Y22" t="n">
         <v>125.37</v>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="L1:P1"/>
+    <mergeCell ref="Q1:U1"/>
+    <mergeCell ref="V1:Z1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
